--- a/observations.xlsx
+++ b/observations.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oscar\OneDrive - HKUST Connect\Documents\school work\s3b_2021Summer\UROP1000\meeting_notes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oscar\OneDrive - HKUST Connect\Documents\school work\s3b_2021Summer\UROP1000\code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{450667B7-E450-48E2-AE32-B3714488339A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AC715F4-4645-4AB0-90DD-A368541D5112}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="42">
   <si>
     <t>sampling rate</t>
   </si>
@@ -122,6 +122,36 @@
   <si>
     <t>features according to paper</t>
   </si>
+  <si>
+    <t xml:space="preserve">sampling rate </t>
+  </si>
+  <si>
+    <t>nrows</t>
+  </si>
+  <si>
+    <t>mae</t>
+  </si>
+  <si>
+    <t>paper features</t>
+  </si>
+  <si>
+    <t>more training data leads to better performance</t>
+  </si>
+  <si>
+    <t>total predicted</t>
+  </si>
+  <si>
+    <t>num total points</t>
+  </si>
+  <si>
+    <t>sampling rate = 0.3</t>
+  </si>
+  <si>
+    <t>sampling rate = 0.6</t>
+  </si>
+  <si>
+    <t>nrows=200</t>
+  </si>
 </sst>
 </file>
 
@@ -130,7 +160,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -138,16 +168,42 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -170,20 +226,87 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -286,7 +409,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$19</c:f>
+              <c:f>Sheet1!$E$47</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -309,7 +432,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$C$21:$C$27</c:f>
+              <c:f>Sheet1!$C$49:$C$55</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -339,7 +462,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$21:$E$27</c:f>
+              <c:f>Sheet1!$E$49:$E$55</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="7"/>
@@ -379,7 +502,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$G$19</c:f>
+              <c:f>Sheet1!$G$47</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -402,7 +525,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$G$21:$G$27</c:f>
+              <c:f>Sheet1!$G$49:$G$55</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="7"/>
@@ -423,6 +546,9 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.46549137284321002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.43826366559485502</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -577,7 +703,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -717,7 +843,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$G$19</c:f>
+              <c:f>Sheet1!$G$47</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -740,7 +866,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$C$21:$C$27</c:f>
+              <c:f>Sheet1!$C$49:$C$55</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -770,7 +896,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$21:$H$27</c:f>
+              <c:f>Sheet1!$H$49:$H$55</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="7"/>
@@ -791,6 +917,9 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.232182879342655</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.240394431483169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -807,7 +936,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$19</c:f>
+              <c:f>Sheet1!$E$47</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -830,7 +959,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$21:$F$27</c:f>
+              <c:f>Sheet1!$F$49:$F$55</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1007,7 +1136,867 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-HK"/>
+              <a:t>accuracy against training</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-HK" baseline="0"/>
+              <a:t> data size</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-HK"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>accuracy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$C$16:$C$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$16:$F$19</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.45986496624155998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.50210970464134996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.55033557046979797</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-08B9-4D57-BCAA-3A2B03531BE9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>paper features</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$C$16:$C$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$16:$H$19</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.51612903225806395</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.57299578059071699</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.58646294445237701</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.614340750963141</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-08B9-4D57-BCAA-3A2B03531BE9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="707975344"/>
+        <c:axId val="707977840"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="707975344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="707977840"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="707977840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.4"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="707975344"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-HK"/>
+              <a:t>mae(km) against training</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-HK" baseline="0"/>
+              <a:t> data size</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-HK"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>custom features</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$C$16:$C$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$16:$G$19</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.43978070970335398</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.37712819746326498</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.31917601462955197</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5DC7-4480-AC9C-6D8B47F16389}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>paper features</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$C$16:$C$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$16:$I$19</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.216574068315877</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.18485684582640899</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.179807156278599</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.18192643443345199</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5DC7-4480-AC9C-6D8B47F16389}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="707975344"/>
+        <c:axId val="707977840"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="707975344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="707977840"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="707977840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="707975344"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1147,6 +2136,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -1664,6 +2733,1038 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2184,15 +4285,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>559418</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:colOff>559417</xdr:colOff>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>33598</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>773043</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>8592</xdr:rowOff>
+      <xdr:colOff>903653</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>113974</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2220,15 +4321,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>312418</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:colOff>252372</xdr:colOff>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>6862</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>147246</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>183971</xdr:rowOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>138397</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2248,6 +4349,80 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>30122</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>81410</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>89551</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>56822</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D3D329B-ACE0-484D-979E-A33EA7208484}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>537308</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>73269</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>596737</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>48681</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6551BE83-9777-4660-B8E1-D9B7361FBE0C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2519,24 +4694,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:K27"/>
+  <dimension ref="B2:R95"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="69" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L32" sqref="L32"/>
+    <sheetView tabSelected="1" topLeftCell="A65" zoomScale="67" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D91" sqref="D91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="27.7265625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="4" max="4" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.6328125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.36328125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.7265625" customWidth="1"/>
     <col min="7" max="7" width="12.08984375" customWidth="1"/>
     <col min="8" max="8" width="13.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>3</v>
       </c>
@@ -2550,7 +4725,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B4" s="1" t="s">
         <v>25</v>
       </c>
@@ -2564,7 +4739,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B5" s="1" t="s">
         <v>23</v>
       </c>
@@ -2578,7 +4753,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B6" s="1" t="s">
         <v>24</v>
       </c>
@@ -2592,270 +4767,689 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B13" t="s">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="F14" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G14" s="11"/>
+      <c r="H14" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="I14" s="12"/>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B16" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="C16" s="10">
+        <v>200</v>
+      </c>
+      <c r="D16" s="13">
+        <v>22214</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1333</v>
+      </c>
+      <c r="F16" s="2">
+        <v>0.45986496624155998</v>
+      </c>
+      <c r="G16" s="2">
+        <v>0.43978070970335398</v>
+      </c>
+      <c r="H16" s="2">
+        <v>0.51612903225806395</v>
+      </c>
+      <c r="I16" s="2">
+        <v>0.216574068315877</v>
+      </c>
+      <c r="L16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B17" s="8"/>
+      <c r="C17" s="10">
+        <v>500</v>
+      </c>
+      <c r="D17" s="13">
+        <v>59242</v>
+      </c>
+      <c r="E17" s="1">
+        <v>3555</v>
+      </c>
+      <c r="F17" s="2">
+        <v>0.50210970464134996</v>
+      </c>
+      <c r="G17" s="2">
+        <v>0.37712819746326498</v>
+      </c>
+      <c r="H17" s="2">
+        <v>0.57299578059071699</v>
+      </c>
+      <c r="I17" s="2">
+        <v>0.18485684582640899</v>
+      </c>
+    </row>
+    <row r="18" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B18" s="8"/>
+      <c r="C18" s="10">
+        <v>1000</v>
+      </c>
+      <c r="D18" s="13">
+        <v>116715</v>
+      </c>
+      <c r="E18" s="1">
+        <v>7003</v>
+      </c>
+      <c r="F18" s="2">
+        <v>0.55033557046979797</v>
+      </c>
+      <c r="G18" s="2">
+        <v>0.31917601462955197</v>
+      </c>
+      <c r="H18" s="2">
+        <v>0.58646294445237701</v>
+      </c>
+      <c r="I18" s="2">
+        <v>0.179807156278599</v>
+      </c>
+    </row>
+    <row r="19" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B19" s="9"/>
+      <c r="C19" s="10">
+        <v>2500</v>
+      </c>
+      <c r="D19" s="13">
+        <v>289838</v>
+      </c>
+      <c r="E19" s="1">
+        <v>17391</v>
+      </c>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2">
+        <v>0.614340750963141</v>
+      </c>
+      <c r="I19" s="2">
+        <v>0.18192643443345199</v>
+      </c>
+    </row>
+    <row r="21" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
+    </row>
+    <row r="22" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
+    </row>
+    <row r="23" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3"/>
+    </row>
+    <row r="24" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="3"/>
+    </row>
+    <row r="25" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="15"/>
+      <c r="Q25" s="15"/>
+      <c r="R25" s="3"/>
+    </row>
+    <row r="26" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="15"/>
+      <c r="Q26" s="15"/>
+      <c r="R26" s="3"/>
+    </row>
+    <row r="27" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="15"/>
+      <c r="Q27" s="15"/>
+      <c r="R27" s="3"/>
+    </row>
+    <row r="28" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="15"/>
+      <c r="Q28" s="15"/>
+      <c r="R28" s="3"/>
+    </row>
+    <row r="29" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="3"/>
+    </row>
+    <row r="30" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="3"/>
+      <c r="R30" s="3"/>
+    </row>
+    <row r="31" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="3"/>
+      <c r="Q31" s="3"/>
+      <c r="R31" s="3"/>
+    </row>
+    <row r="32" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
+      <c r="P32" s="3"/>
+      <c r="Q32" s="3"/>
+      <c r="R32" s="3"/>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B41" t="s">
         <v>3</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C41" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B14" t="s">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B42" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B15" t="s">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B43" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B16" t="s">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B44" t="s">
         <v>10</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C44" t="s">
         <v>14</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D44" t="s">
         <v>13</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E44" t="s">
         <v>11</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F44" t="s">
         <v>12</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G44" t="s">
         <v>15</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H44" t="s">
         <v>16</v>
       </c>
-      <c r="I16" t="s">
+      <c r="I44" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B17" t="s">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B45" t="s">
         <v>18</v>
       </c>
-      <c r="C17">
+      <c r="C45">
         <v>15</v>
       </c>
-      <c r="D17">
+      <c r="D45">
         <v>3818</v>
       </c>
-      <c r="E17">
+      <c r="E45">
         <v>30</v>
       </c>
-      <c r="F17">
+      <c r="F45">
         <v>3942</v>
       </c>
-      <c r="G17">
+      <c r="G45">
         <v>1.5129999999999999</v>
       </c>
-      <c r="H17">
+      <c r="H45">
         <v>5.7469999999999999</v>
       </c>
-      <c r="I17">
+      <c r="I45">
         <v>3902</v>
       </c>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B19" s="4"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="3" t="s">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B47" s="3"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3" t="s">
+      <c r="F47" s="6"/>
+      <c r="G47" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="H19" s="3"/>
+      <c r="H47" s="6"/>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B20" s="1" t="s">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B48" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C48" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D48" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E48" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F48" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G20" s="6" t="s">
+      <c r="G48" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H20" s="6" t="s">
+      <c r="H48" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B21" s="1">
+    <row r="49" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B49" s="7">
         <v>22214</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C49" s="10">
         <v>0.1</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D49" s="1">
         <v>2221</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E49" s="2">
         <v>0.29199999999999998</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F49" s="2">
         <v>0.65900000000000003</v>
       </c>
-      <c r="G21" s="2">
+      <c r="G49" s="2">
         <v>0.46516853932584201</v>
       </c>
-      <c r="H21" s="2">
+      <c r="H49" s="2">
         <v>0.25359999999999999</v>
       </c>
+      <c r="J49" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B22" s="1"/>
-      <c r="C22" s="1">
+    <row r="50" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B50" s="8"/>
+      <c r="C50" s="10">
         <v>0.2</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D50" s="1">
         <v>4442</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E50" s="2">
         <v>0.41399999999999998</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F50" s="2">
         <v>0.49399999999999999</v>
       </c>
-      <c r="G22" s="2">
+      <c r="G50" s="2">
         <v>0.51743532058492603</v>
       </c>
-      <c r="H22" s="2">
+      <c r="H50" s="2">
         <v>0.206798830759438</v>
       </c>
-      <c r="K22" t="s">
-        <v>29</v>
+      <c r="J50" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B23" s="1"/>
-      <c r="C23" s="1">
+    <row r="51" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B51" s="8"/>
+      <c r="C51" s="10">
         <v>0.3</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D51" s="1">
         <v>6664</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E51" s="2">
         <v>0.41599999999999998</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F51" s="2">
         <v>0.42299999999999999</v>
       </c>
-      <c r="G23" s="2">
+      <c r="G51" s="2">
         <v>0.490622655663916</v>
       </c>
-      <c r="H23" s="2">
+      <c r="H51" s="2">
         <v>0.19893117076426201</v>
       </c>
-      <c r="K23" t="s">
-        <v>8</v>
+      <c r="J51" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B24" s="1"/>
-      <c r="C24" s="1">
+    <row r="52" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B52" s="8"/>
+      <c r="C52" s="10">
         <v>0.4</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D52" s="1">
         <v>8885</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E52" s="2">
         <v>0.44800000000000001</v>
       </c>
-      <c r="F24" s="2">
+      <c r="F52" s="2">
         <v>0.36099999999999999</v>
       </c>
-      <c r="G24" s="2">
+      <c r="G52" s="2">
         <v>0.513787281935846</v>
       </c>
-      <c r="H24" s="2">
+      <c r="H52" s="2">
         <v>0.20228254591572301</v>
       </c>
-      <c r="K24" t="s">
-        <v>9</v>
-      </c>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B25" s="1"/>
-      <c r="C25" s="1">
+    <row r="53" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B53" s="8"/>
+      <c r="C53" s="10">
         <v>0.5</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D53" s="1">
         <v>11107</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E53" s="2">
         <v>0.46800000000000003</v>
       </c>
-      <c r="F25" s="2">
+      <c r="F53" s="2">
         <v>0.31</v>
       </c>
-      <c r="G25" s="2">
+      <c r="G53" s="2">
         <v>0.49819981998199803</v>
       </c>
-      <c r="H25" s="2">
+      <c r="H53" s="2">
         <v>0.21246277915536199</v>
       </c>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B26" s="1"/>
-      <c r="C26" s="1">
+    <row r="54" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B54" s="8"/>
+      <c r="C54" s="10">
         <v>0.6</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D54" s="1">
         <v>13328</v>
       </c>
-      <c r="E26" s="2">
+      <c r="E54" s="2">
         <v>0.46100000000000002</v>
       </c>
-      <c r="F26" s="2">
+      <c r="F54" s="2">
         <v>0.247</v>
       </c>
-      <c r="G26" s="2">
+      <c r="G54" s="2">
         <v>0.46549137284321002</v>
       </c>
-      <c r="H26" s="2">
+      <c r="H54" s="2">
         <v>0.232182879342655</v>
       </c>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B27" s="1"/>
-      <c r="C27" s="1">
+    <row r="55" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B55" s="9"/>
+      <c r="C55" s="10">
         <v>0.7</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D55" s="1">
         <v>15549</v>
       </c>
-      <c r="E27" s="2">
+      <c r="E55" s="2">
         <v>0.5</v>
       </c>
-      <c r="F27" s="2">
+      <c r="F55" s="2">
         <v>0.222</v>
       </c>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
+      <c r="G55" s="2">
+        <v>0.43826366559485502</v>
+      </c>
+      <c r="H55" s="2">
+        <v>0.240394431483169</v>
+      </c>
+    </row>
+    <row r="77" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B77" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="79" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="C79" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D79" s="14"/>
+      <c r="F79" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="G79" s="14"/>
+    </row>
+    <row r="80" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B80" t="s">
+        <v>41</v>
+      </c>
+      <c r="C80" s="2">
+        <v>0.51612903225806395</v>
+      </c>
+      <c r="D80" s="2">
+        <v>0.216574068315877</v>
+      </c>
+      <c r="F80" s="2">
+        <v>0.47111777900000001</v>
+      </c>
+      <c r="G80" s="2">
+        <v>0.23060900000000001</v>
+      </c>
+    </row>
+    <row r="81" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="C81" s="2">
+        <v>0.57299578059071699</v>
+      </c>
+      <c r="D81" s="2">
+        <v>0.18485684582640899</v>
+      </c>
+      <c r="F81" s="2">
+        <v>0.52032599999999996</v>
+      </c>
+      <c r="G81" s="2">
+        <v>0.23257700000000001</v>
+      </c>
+    </row>
+    <row r="82" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="C82" s="2">
+        <v>0.58646294445237701</v>
+      </c>
+      <c r="D82" s="2">
+        <v>0.179807156278599</v>
+      </c>
+      <c r="F82" s="2">
+        <v>0.51877766671426495</v>
+      </c>
+      <c r="G82" s="2">
+        <v>0.223551466920555</v>
+      </c>
+    </row>
+    <row r="83" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="C83" s="2">
+        <v>0.614340750963141</v>
+      </c>
+      <c r="D83" s="2">
+        <v>0.18192643443345199</v>
+      </c>
+      <c r="F83" s="2">
+        <v>0.51970903654293998</v>
+      </c>
+      <c r="G83" s="2">
+        <v>0.234628010715212</v>
+      </c>
+    </row>
+    <row r="87" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B87" s="3"/>
+      <c r="C87" s="4"/>
+      <c r="D87" s="3"/>
+      <c r="E87" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F87" s="6"/>
+    </row>
+    <row r="88" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B88" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C88" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E88" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F88" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B89" s="7">
+        <v>22214</v>
+      </c>
+      <c r="C89" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="D89" s="1"/>
+      <c r="E89" s="2"/>
+      <c r="F89" s="2"/>
+    </row>
+    <row r="90" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B90" s="8"/>
+      <c r="C90" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="D90" s="1"/>
+      <c r="E90" s="2"/>
+      <c r="F90" s="2"/>
+    </row>
+    <row r="91" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B91" s="8"/>
+      <c r="C91" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="D91" s="1">
+        <v>1333</v>
+      </c>
+      <c r="E91" s="2">
+        <v>0.51612903225806395</v>
+      </c>
+      <c r="F91" s="2">
+        <v>0.216574068315877</v>
+      </c>
+    </row>
+    <row r="92" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B92" s="8"/>
+      <c r="C92" s="10">
+        <v>0.4</v>
+      </c>
+      <c r="D92" s="1"/>
+      <c r="E92" s="2"/>
+      <c r="F92" s="2"/>
+    </row>
+    <row r="93" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B93" s="8"/>
+      <c r="C93" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="D93" s="1"/>
+      <c r="E93" s="2"/>
+      <c r="F93" s="2"/>
+    </row>
+    <row r="94" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B94" s="8"/>
+      <c r="C94" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="D94" s="1"/>
+      <c r="E94" s="2">
+        <v>0.47111777900000001</v>
+      </c>
+      <c r="F94" s="2">
+        <v>0.23060900000000001</v>
+      </c>
+    </row>
+    <row r="95" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B95" s="9"/>
+      <c r="C95" s="10">
+        <v>0.7</v>
+      </c>
+      <c r="D95" s="1"/>
+      <c r="E95" s="2"/>
+      <c r="F95" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
+  <mergeCells count="10">
+    <mergeCell ref="E87:F87"/>
+    <mergeCell ref="B89:B95"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="B49:B55"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F79:G79"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="G47:H47"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
